--- a/ProbabilityAndStatistics/gg.xlsx
+++ b/ProbabilityAndStatistics/gg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\Desktop\Sem6ULSA\ULSA-6th-Semester\ProbabilityAndStatistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE9A431-554B-42D2-92DC-77B84848658E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE80DFB-27F3-4BD0-9D26-06BF19609517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,10 +17,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$2:$B$2</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">Hoja2!$B$2</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Hoja2!$B$3:$B$62</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Hoja2!$B$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Hoja2!$B$3:$B$62</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Hoja2!$B$3:$B$62</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Hoja2!$B$2</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Hoja2!$B$3:$B$62</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,8 +41,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Duración de Equipos de Computo en una Empresa (años)</t>
   </si>
@@ -85,6 +106,48 @@
   </si>
   <si>
     <t>Max</t>
+  </si>
+  <si>
+    <t>Frecuencia acum</t>
+  </si>
+  <si>
+    <t>% acum</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>El promedio de duracion de los equipos de computo</t>
+  </si>
+  <si>
+    <t>Moda</t>
+  </si>
+  <si>
+    <t>El tiempo de duracion que mas se repite que es de 3.4 años, se repite 5 veces</t>
+  </si>
+  <si>
+    <t>Mediana</t>
+  </si>
+  <si>
+    <t>El dato que geograficamente esta al medio de las durraciones al ordenarlas de menor a mayor</t>
+  </si>
+  <si>
+    <t>Desciacion estandar</t>
+  </si>
+  <si>
+    <t>La variacion de cada duracion con respecto a la media (en promedio)</t>
+  </si>
+  <si>
+    <t>Varrianza</t>
+  </si>
+  <si>
+    <t>La variacion de cada duracion con respecto a la media (en promedio) al cuadrado</t>
+  </si>
+  <si>
+    <t>C.V.</t>
+  </si>
+  <si>
+    <t>Por cada año de duracion de la media, se incrementa la variacion un 0.17 años</t>
   </si>
 </sst>
 </file>
@@ -177,13 +240,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -193,6 +250,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -905,7 +968,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -916,7 +979,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{2590C9C7-E754-416D-BB50-3F2402A657FC}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>Duración</cx:v>
             </cx:txData>
           </cx:tx>
@@ -935,6 +998,51 @@
       <cx:axis id="1">
         <cx:valScaling/>
         <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{3E6F5212-4BE9-432D-B838-B67A0F4A383E}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r">
+              <cx:binCount val="5"/>
+            </cx:binning>
+          </cx:layoutPr>
+          <cx:axisId val="1"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="0" uniqueId="{EFE42723-E782-45BD-8588-446A1B37ACC5}">
+          <cx:axisId val="2"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="2">
+        <cx:valScaling max="1" min="0"/>
+        <cx:units unit="percentage"/>
         <cx:tickLabels/>
       </cx:axis>
     </cx:plotArea>
@@ -1022,6 +1130,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="294">
   <cs:axisTitle>
@@ -2034,6 +2182,514 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -2124,8 +2780,86 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9110870" y="7080803"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="9110870" y="7078732"/>
+              <a:ext cx="4867275" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>626984</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>126507</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>18494</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>129466</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96505707-86C8-06F1-3CC0-BF1620AFC3CF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9008984" y="10080132"/>
+              <a:ext cx="5020785" cy="3050959"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2421,21 +3155,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T62"/>
+  <dimension ref="A1:X62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U31" sqref="U31"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="87" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="17" max="17" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:24" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2443,20 +3180,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>2.1</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>14</v>
       </c>
@@ -2479,8 +3216,18 @@
         <f>COUNTIF(B:B,J4)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="U4" t="s">
+        <v>16</v>
+      </c>
+      <c r="V4" t="e">
+        <f>AVERAGE(I5:I64)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>21</v>
       </c>
@@ -2494,7 +3241,7 @@
         <f>COUNTIF($B$3:$B$62,F5)</f>
         <v>1</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="4">
         <f>G5/$G$26</f>
         <v>1.6666666666666666E-2</v>
       </c>
@@ -2505,8 +3252,22 @@
         <f t="shared" ref="K5:K47" si="0">COUNTIF(B:B,J5)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="U5" t="s">
+        <v>18</v>
+      </c>
+      <c r="V5" t="e" cm="1">
+        <f t="array" ref="V5">_xlfn.MODE.MULT(I5:I64)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W5">
+        <f>COUNTIF(I5:I64,V5)</f>
+        <v>0</v>
+      </c>
+      <c r="X5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>17</v>
       </c>
@@ -2520,7 +3281,7 @@
         <f t="shared" ref="G6:G25" si="1">COUNTIF($B$3:$B$62,F6)</f>
         <v>2</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="4">
         <f t="shared" ref="H6:H25" si="2">G6/$G$26</f>
         <v>3.3333333333333333E-2</v>
       </c>
@@ -2531,8 +3292,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="U6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V6" t="e">
+        <f>MEDIAN(I5:I64)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="X6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>47</v>
       </c>
@@ -2546,7 +3317,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="4">
         <f t="shared" si="2"/>
         <v>6.6666666666666666E-2</v>
       </c>
@@ -2557,8 +3328,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="U7" t="s">
+        <v>22</v>
+      </c>
+      <c r="V7" t="e">
+        <f>_xlfn.STDEV.P(I5:I64)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>49</v>
       </c>
@@ -2572,7 +3353,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="4">
         <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
@@ -2583,8 +3364,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="U8" t="s">
+        <v>24</v>
+      </c>
+      <c r="V8" t="e">
+        <f>V7^2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>57</v>
       </c>
@@ -2598,7 +3389,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="4">
         <f t="shared" si="2"/>
         <v>8.3333333333333329E-2</v>
       </c>
@@ -2609,8 +3400,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="U9" t="s">
+        <v>26</v>
+      </c>
+      <c r="V9" t="e">
+        <f>V7/V4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44</v>
       </c>
@@ -2624,7 +3425,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="4">
         <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
@@ -2636,7 +3437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>46</v>
       </c>
@@ -2650,7 +3451,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="4">
         <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
@@ -2662,7 +3463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -2676,7 +3477,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="4">
         <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
@@ -2688,7 +3489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>36</v>
       </c>
@@ -2702,7 +3503,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="4">
         <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
@@ -2714,7 +3515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>37</v>
       </c>
@@ -2728,7 +3529,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="4">
         <f t="shared" si="2"/>
         <v>6.6666666666666666E-2</v>
       </c>
@@ -2740,7 +3541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>41</v>
       </c>
@@ -2754,7 +3555,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="4">
         <f t="shared" si="2"/>
         <v>6.6666666666666666E-2</v>
       </c>
@@ -2766,7 +3567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>59</v>
       </c>
@@ -2780,7 +3581,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="4">
         <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
@@ -2806,7 +3607,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="4">
         <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
@@ -2832,7 +3633,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="4">
         <f t="shared" si="2"/>
         <v>6.6666666666666666E-2</v>
       </c>
@@ -2858,7 +3659,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="4">
         <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
@@ -2884,7 +3685,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="4">
         <f t="shared" si="2"/>
         <v>6.6666666666666666E-2</v>
       </c>
@@ -2910,7 +3711,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="4">
         <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
@@ -2936,7 +3737,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="4">
         <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
@@ -2962,7 +3763,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="4">
         <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
@@ -2988,7 +3789,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="4">
         <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
@@ -3014,7 +3815,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="4">
         <f t="shared" si="2"/>
         <v>1.6666666666666666E-2</v>
       </c>
@@ -3059,14 +3860,14 @@
       <c r="B26" s="1">
         <v>3.8</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="1">
         <f>SUM(G5:G25)</f>
         <v>60</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="5">
         <f>SUM(H5:H25)</f>
         <v>1</v>
       </c>
@@ -3093,7 +3894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>50</v>
       </c>
@@ -3107,12 +3908,14 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="M28" s="3" t="s">
+      <c r="M28" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -3140,6 +3943,12 @@
       <c r="P29" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="Q29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -3165,7 +3974,16 @@
         <f>N30+T25</f>
         <v>2.96</v>
       </c>
-      <c r="P30" s="1"/>
+      <c r="P30" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>1</v>
+      </c>
+      <c r="R30" s="4">
+        <f>Q30/$Q$34</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -3192,7 +4010,17 @@
         <f>N31+T25</f>
         <v>3.8200000000000003</v>
       </c>
-      <c r="P31" s="1"/>
+      <c r="P31" s="1">
+        <v>25</v>
+      </c>
+      <c r="Q31" s="1">
+        <f>P31+Q30</f>
+        <v>26</v>
+      </c>
+      <c r="R31" s="4">
+        <f t="shared" ref="R31:R34" si="3">Q31/$Q$34</f>
+        <v>0.43333333333333335</v>
+      </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -3219,9 +4047,19 @@
         <f>N32+T25</f>
         <v>4.6800000000000006</v>
       </c>
-      <c r="P32" s="1"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P32" s="1">
+        <v>25</v>
+      </c>
+      <c r="Q32" s="1">
+        <f>P32+Q31</f>
+        <v>51</v>
+      </c>
+      <c r="R32" s="4">
+        <f t="shared" si="3"/>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>3</v>
       </c>
@@ -3246,9 +4084,19 @@
         <f>N33+T25</f>
         <v>5.5400000000000009</v>
       </c>
-      <c r="P33" s="1"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P33" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q33" s="1">
+        <f>P33+Q32</f>
+        <v>59</v>
+      </c>
+      <c r="R33" s="4">
+        <f t="shared" si="3"/>
+        <v>0.98333333333333328</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>10</v>
       </c>
@@ -3273,9 +4121,19 @@
         <f>N34+T25</f>
         <v>6.4000000000000012</v>
       </c>
-      <c r="P34" s="1"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P34" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="1">
+        <f>P34+Q33</f>
+        <v>60</v>
+      </c>
+      <c r="R34" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>13</v>
       </c>
@@ -3290,7 +4148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>52</v>
       </c>
@@ -3305,7 +4163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>20</v>
       </c>
@@ -3320,7 +4178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>22</v>
       </c>
@@ -3335,7 +4193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>23</v>
       </c>
@@ -3350,7 +4208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>4</v>
       </c>
@@ -3365,7 +4223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3380,7 +4238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>11</v>
       </c>
@@ -3395,7 +4253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>33</v>
       </c>
@@ -3410,7 +4268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>34</v>
       </c>
@@ -3425,7 +4283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>55</v>
       </c>
@@ -3440,7 +4298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>31</v>
       </c>
@@ -3455,7 +4313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>38</v>
       </c>
@@ -3470,7 +4328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>5</v>
       </c>
@@ -3598,7 +4456,7 @@
   </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="M28:R28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/ProbabilityAndStatistics/gg.xlsx
+++ b/ProbabilityAndStatistics/gg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\Desktop\Sem6ULSA\ULSA-6th-Semester\ProbabilityAndStatistics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Escritorio\ULSA-6th-Semester\ProbabilityAndStatistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE9A431-554B-42D2-92DC-77B84848658E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFB47E1-2015-48E3-B2D5-A9B2504333A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -19,8 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$2:$B$2</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">Hoja2!$B$2</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Hoja2!$B$3:$B$62</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Hoja2!$B$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Hoja2!$B$3:$B$62</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -91,6 +89,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -107,12 +108,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -165,11 +172,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -177,13 +185,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -194,8 +196,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -2124,7 +2136,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9110870" y="7080803"/>
+              <a:off x="9110870" y="7078732"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2423,17 +2435,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U31" sqref="U31"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2450,11 +2462,11 @@
       <c r="B3" s="1">
         <v>2.1</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -2494,7 +2506,7 @@
         <f>COUNTIF($B$3:$B$62,F5)</f>
         <v>1</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="4">
         <f>G5/$G$26</f>
         <v>1.6666666666666666E-2</v>
       </c>
@@ -2520,7 +2532,7 @@
         <f t="shared" ref="G6:G25" si="1">COUNTIF($B$3:$B$62,F6)</f>
         <v>2</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="4">
         <f t="shared" ref="H6:H25" si="2">G6/$G$26</f>
         <v>3.3333333333333333E-2</v>
       </c>
@@ -2546,7 +2558,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="4">
         <f t="shared" si="2"/>
         <v>6.6666666666666666E-2</v>
       </c>
@@ -2572,7 +2584,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="4">
         <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
@@ -2598,7 +2610,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="4">
         <f t="shared" si="2"/>
         <v>8.3333333333333329E-2</v>
       </c>
@@ -2624,7 +2636,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="4">
         <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
@@ -2650,7 +2662,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="4">
         <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
@@ -2676,7 +2688,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="4">
         <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
@@ -2702,7 +2714,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="4">
         <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
@@ -2728,7 +2740,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="4">
         <f t="shared" si="2"/>
         <v>6.6666666666666666E-2</v>
       </c>
@@ -2754,7 +2766,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="4">
         <f t="shared" si="2"/>
         <v>6.6666666666666666E-2</v>
       </c>
@@ -2780,7 +2792,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="4">
         <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
@@ -2806,7 +2818,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="4">
         <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
@@ -2832,7 +2844,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="4">
         <f t="shared" si="2"/>
         <v>6.6666666666666666E-2</v>
       </c>
@@ -2858,7 +2870,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="4">
         <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
@@ -2884,7 +2896,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="4">
         <f t="shared" si="2"/>
         <v>6.6666666666666666E-2</v>
       </c>
@@ -2910,7 +2922,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="4">
         <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
@@ -2936,7 +2948,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="4">
         <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
@@ -2962,7 +2974,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="4">
         <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
@@ -2988,7 +3000,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="4">
         <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
@@ -3014,7 +3026,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="4">
         <f t="shared" si="2"/>
         <v>1.6666666666666666E-2</v>
       </c>
@@ -3059,14 +3071,14 @@
       <c r="B26" s="1">
         <v>3.8</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="1">
         <f>SUM(G5:G25)</f>
         <v>60</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="5">
         <f>SUM(H5:H25)</f>
         <v>1</v>
       </c>
@@ -3107,12 +3119,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="M28" s="3" t="s">
+      <c r="M28" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -3137,7 +3149,7 @@
       <c r="O29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P29" s="1" t="s">
+      <c r="P29" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3165,7 +3177,10 @@
         <f>N30+T25</f>
         <v>2.96</v>
       </c>
-      <c r="P30" s="1"/>
+      <c r="P30" s="10">
+        <f>COUNTIFS(B3:B62,"&gt;=2.1",B3:B62,"&lt;=2.96")</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -3192,7 +3207,10 @@
         <f>N31+T25</f>
         <v>3.8200000000000003</v>
       </c>
-      <c r="P31" s="1"/>
+      <c r="P31" s="10">
+        <f>COUNTIFS(B3:B63,"&gt;=2.96",B3:B63,"&lt;=3.82")</f>
+        <v>25</v>
+      </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -3219,7 +3237,10 @@
         <f>N32+T25</f>
         <v>4.6800000000000006</v>
       </c>
-      <c r="P32" s="1"/>
+      <c r="P32" s="10">
+        <f>COUNTIFS(B3:B64,"&gt;=3.82",B3:B64,"&lt;=4.68")</f>
+        <v>25</v>
+      </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
@@ -3246,7 +3267,10 @@
         <f>N33+T25</f>
         <v>5.5400000000000009</v>
       </c>
-      <c r="P33" s="1"/>
+      <c r="P33" s="10">
+        <f>COUNTIFS(B3:B65,"&gt;=4.68",B3:B65,"&lt;=5.53")</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
@@ -3273,7 +3297,10 @@
         <f>N34+T25</f>
         <v>6.4000000000000012</v>
       </c>
-      <c r="P34" s="1"/>
+      <c r="P34" s="10">
+        <f>COUNTIFS(F7:F66,"&gt;=5.54",F7:F66,"&lt;=6.4")</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
@@ -3526,7 +3553,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>25</v>
       </c>
